--- a/biology/Zoologie/Aparallactus_turneri/Aparallactus_turneri.xlsx
+++ b/biology/Zoologie/Aparallactus_turneri/Aparallactus_turneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aparallactus turneri est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aparallactus turneri est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des régions côtières Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des régions côtières Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Aparallactus turneri[2] mesure 175 mm dont 35 mm pour la queue. C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Aparallactus turneri mesure 175 mm dont 35 mm pour la queue. C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de H. J Allen Turner qui a collecté le premier spécimen[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de H. J Allen Turner qui a collecté le premier spécimen.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1935 : Scientific results of an expedition to rain forest regions in eastern Africa. I. New reptiles and amphibians from East Africa. Bulletin of the Museum of Comparative Zoology. Cambridge, Massachusetts, vol. 79, p. 3-19 (texte intégral).</t>
         </is>
